--- a/data_process/xlsx/jongno_D3_processed.xlsx
+++ b/data_process/xlsx/jongno_D3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>create_time</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lng</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -551,8 +561,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>126.9897117</v>
+      </c>
+      <c r="N2" t="n">
+        <v>37.5734378</v>
       </c>
     </row>
     <row r="3">
@@ -611,8 +627,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>127.0002521</v>
+      </c>
+      <c r="N3" t="n">
+        <v>37.5834381</v>
       </c>
     </row>
     <row r="4">
@@ -671,8 +693,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>127.0020846</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.5839822</v>
       </c>
     </row>
     <row r="5">
@@ -731,8 +759,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>126.989865</v>
+      </c>
+      <c r="N5" t="n">
+        <v>37.5707552</v>
       </c>
     </row>
     <row r="6">
@@ -791,8 +825,14 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>126.9893452</v>
+      </c>
+      <c r="N6" t="n">
+        <v>37.572674</v>
       </c>
     </row>
     <row r="7">
@@ -851,8 +891,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>126.9901612</v>
+      </c>
+      <c r="N7" t="n">
+        <v>37.5660189</v>
       </c>
     </row>
     <row r="8">
@@ -911,8 +957,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>126.9855994</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.5694449</v>
       </c>
     </row>
     <row r="9">
@@ -971,8 +1023,14 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>126.9995846</v>
+      </c>
+      <c r="N9" t="n">
+        <v>37.5829169</v>
       </c>
     </row>
     <row r="10">
@@ -1031,8 +1089,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>127.0009767</v>
+      </c>
+      <c r="N10" t="n">
+        <v>37.5833797</v>
       </c>
     </row>
     <row r="11">
@@ -1091,8 +1155,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>126.9854047</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37.5694331</v>
       </c>
     </row>
     <row r="12">
@@ -1151,8 +1221,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>126.9870525</v>
+      </c>
+      <c r="N12" t="n">
+        <v>37.5698194</v>
       </c>
     </row>
     <row r="13">
@@ -1211,8 +1287,14 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>127.0075121</v>
+      </c>
+      <c r="N13" t="n">
+        <v>37.5674614</v>
       </c>
     </row>
     <row r="14">
@@ -1271,8 +1353,14 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>126.9993368</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.5832163</v>
       </c>
     </row>
     <row r="15">
@@ -1327,8 +1415,14 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>127.006938</v>
+      </c>
+      <c r="N15" t="n">
+        <v>37.567717</v>
       </c>
     </row>
     <row r="16">
@@ -1387,8 +1481,14 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>127.0073812</v>
+      </c>
+      <c r="N16" t="n">
+        <v>37.5668017</v>
       </c>
     </row>
     <row r="17">
@@ -1447,8 +1547,14 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>127.0106928</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.5721696</v>
       </c>
     </row>
     <row r="18">
@@ -1507,8 +1613,14 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>126.9834517</v>
+      </c>
+      <c r="N18" t="n">
+        <v>37.5634558</v>
       </c>
     </row>
     <row r="19">
@@ -1567,8 +1679,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>127.0077855</v>
+      </c>
+      <c r="N19" t="n">
+        <v>37.5677105</v>
       </c>
     </row>
     <row r="20">
@@ -1627,8 +1745,14 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>126.9974355</v>
+      </c>
+      <c r="N20" t="n">
+        <v>37.5837577</v>
       </c>
     </row>
     <row r="21">
@@ -1687,8 +1811,14 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>126.9672317</v>
+      </c>
+      <c r="N21" t="n">
+        <v>37.58095</v>
       </c>
     </row>
     <row r="22">
@@ -1747,8 +1877,14 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>126.9964157</v>
+      </c>
+      <c r="N22" t="n">
+        <v>37.5615426</v>
       </c>
     </row>
     <row r="23">
@@ -1807,8 +1943,14 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>126.9961751</v>
+      </c>
+      <c r="N23" t="n">
+        <v>37.5612966</v>
       </c>
     </row>
     <row r="24">
@@ -1867,8 +2009,14 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>126.998481</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37.5609583</v>
       </c>
     </row>
     <row r="25">
@@ -1927,8 +2075,14 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>126.9899997</v>
+      </c>
+      <c r="N25" t="n">
+        <v>37.5730843</v>
       </c>
     </row>
     <row r="26">
@@ -1987,8 +2141,14 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>127.0108681</v>
+      </c>
+      <c r="N26" t="n">
+        <v>37.5691506</v>
       </c>
     </row>
     <row r="27">
@@ -2047,8 +2207,14 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N27" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="28">
@@ -2107,8 +2273,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N28" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="29">
@@ -2167,8 +2339,14 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>126.9954936</v>
+      </c>
+      <c r="N29" t="n">
+        <v>37.5670649</v>
       </c>
     </row>
     <row r="30">
@@ -2227,8 +2405,14 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-15 13:17:30</t>
-        </is>
+          <t>2023-08-20 16:44:24</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>127.0002301</v>
+      </c>
+      <c r="N30" t="n">
+        <v>37.5613846</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_D3_processed.xlsx
+++ b/data_process/xlsx/jongno_D3_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,27 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>create_time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lng</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>naver_place_id</t>
         </is>
       </c>
     </row>
@@ -527,7 +537,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -561,14 +571,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
+          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143273203</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>126.9897117</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>37.5734378</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1722877110</v>
       </c>
     </row>
     <row r="3">
@@ -593,7 +611,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -627,14 +645,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143281321</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>127.0002521</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>37.5834381</v>
+      </c>
+      <c r="P3" t="n">
+        <v>20909851</v>
       </c>
     </row>
     <row r="4">
@@ -693,20 +719,28 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143288392</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>127.0020846</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>37.5839822</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33166947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>낙원게임랜드</t>
+          <t>세븐틴코인노래연습장 종로3가점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -716,7 +750,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -725,7 +759,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -739,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>돈화문로5길</t>
+          <t>돈화문로11길</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>38 한성빌딩</t>
+          <t>38 경한빌딩 2층</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -754,25 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02-5229-7040</t>
+          <t>02-747-2202</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>126.989865</v>
+          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143295241</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>37.5707552</v>
+        <v>126.9893452</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37.572674</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1353484853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 종로3가점</t>
+          <t>G르Go코인노래연습장</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -787,11 +829,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -805,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>돈화문로11길</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>38 경한빌딩 2층</t>
+          <t>37 3층 4층</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -820,25 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>02-747-2202</t>
+          <t>0507-1353-6211</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>126.9893452</v>
+          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143302749</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>37.572674</v>
+        <v>126.9995846</v>
+      </c>
+      <c r="O6" t="n">
+        <v>37.5829169</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1021302158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 을지로3가점</t>
+          <t>낙원게임랜드</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -848,16 +898,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -866,17 +916,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>을지로</t>
+          <t>돈화문로5길</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>110-1 2층</t>
+          <t>38 한성빌딩</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -886,19 +936,27 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>02-6248-4455</t>
+          <t>02-5229-7040</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>126.9901612</v>
+          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143308274</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>37.5660189</v>
+        <v>126.989865</v>
+      </c>
+      <c r="O7" t="n">
+        <v>37.5707552</v>
+      </c>
+      <c r="P7" t="n">
+        <v>599463831</v>
       </c>
     </row>
     <row r="8">
@@ -923,7 +981,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -957,20 +1015,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143313478</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>126.9855994</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>37.5694449</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1710676941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>G르Go코인노래연습장</t>
+          <t>고래고래코인노래연습장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -989,7 +1055,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1003,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>우정국로2길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>37 3층 4층</t>
+          <t>42 덕산빌딩 지하1층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1018,19 +1084,27 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1353-6211</t>
+          <t>0507-1415-7344</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>126.9995846</v>
+          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143319040</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>37.5829169</v>
+        <v>126.9854047</v>
+      </c>
+      <c r="O9" t="n">
+        <v>37.5694331</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1079072185</v>
       </c>
     </row>
     <row r="10">
@@ -1051,11 +1125,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1089,20 +1163,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143323944</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>127.0009767</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>37.5833797</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1526812708</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>고래고래코인노래연습장</t>
+          <t>짱오락실 종로점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1112,7 +1194,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1121,7 +1203,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1135,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>우정국로2길</t>
+          <t>종로14길</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>42 덕산빌딩 지하1층</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1150,25 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0507-1415-7344</t>
+          <t>02-0200-0000</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>126.9854047</v>
+          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143329171</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N11" t="n">
-        <v>37.5694331</v>
+        <v>126.9870525</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37.5698194</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1745549429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>짱오락실 종로점</t>
+          <t>세븐틴코인노래연습장 을지로3가점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1178,16 +1268,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1196,17 +1286,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>종로14길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>110-1 2층</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1216,25 +1306,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>02-0200-0000</t>
+          <t>02-6248-4455</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>126.9870525</v>
+          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143334359</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N12" t="n">
-        <v>37.5698194</v>
+        <v>126.9901612</v>
+      </c>
+      <c r="O12" t="n">
+        <v>37.5660189</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1498289007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>두타게임랜드</t>
+          <t>에코코인노래연습장</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1244,7 +1342,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1253,7 +1351,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1262,17 +1360,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>을지로43길</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>30 미진빌딩</t>
+          <t>40 상지빌딩 지하1층</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1282,25 +1380,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1407-6675</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>127.0075121</v>
+          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143341177</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>37.5674614</v>
+        <v>126.9993368</v>
+      </c>
+      <c r="O13" t="n">
+        <v>37.5832163</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1279861834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>에코코인노래연습장</t>
+          <t>성인</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1310,7 +1416,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1319,7 +1425,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1328,19 +1434,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>대명길</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>40 상지빌딩 지하1층</t>
-        </is>
-      </c>
+          <t>을지로6가</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
           <t>jongno</t>
@@ -1348,25 +1450,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0507-1407-6675</t>
+          <t>02-6388-2926</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>126.9993368</v>
+          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143347995</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>37.5832163</v>
+        <v>127.006938</v>
+      </c>
+      <c r="O14" t="n">
+        <v>37.567717</v>
+      </c>
+      <c r="P14" t="n">
+        <v>18062557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>성인</t>
+          <t>인형뽑기</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1394,15 +1504,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>을지로6가</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>창신길</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>jongno</t>
@@ -1410,25 +1524,33 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>02-6388-2926</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>127.006938</v>
+          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143356827</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N15" t="n">
-        <v>37.567717</v>
+        <v>127.0106928</v>
+      </c>
+      <c r="O15" t="n">
+        <v>37.5721696</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1581490776</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>게임아이존</t>
+          <t>두타게임랜드</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1447,7 +1569,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1461,12 +1583,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>을지로43길</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>247 굿모닝시티쇼핑몰</t>
+          <t>30 미진빌딩</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1481,20 +1603,28 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>127.0073812</v>
+          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143367721</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N16" t="n">
-        <v>37.5668017</v>
+        <v>127.0075121</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.5674614</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1558580969</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>인형뽑기</t>
+          <t>뮤직이너스</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1504,7 +1634,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1513,7 +1643,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1522,17 +1652,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>창신길</t>
+          <t>을지로43길</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>38 지하 1층 뮤직이너스</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1542,19 +1672,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-7506-0185</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>127.0106928</v>
+          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143378536</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N17" t="n">
-        <v>37.5721696</v>
+        <v>127.0077855</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37.5677105</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1938287664</v>
       </c>
     </row>
     <row r="18">
@@ -1613,20 +1751,28 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143385358</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>126.9834517</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>37.5634558</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1980738300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>뮤직이너스</t>
+          <t>게임아이존</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1636,7 +1782,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1659,12 +1805,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>을지로43길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>38 지하 1층 뮤직이너스</t>
+          <t>247 굿모닝시티쇼핑몰</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1674,19 +1820,27 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>010-7506-0185</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>127.0077855</v>
+          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143390974</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N19" t="n">
-        <v>37.5677105</v>
+        <v>127.0073812</v>
+      </c>
+      <c r="O19" t="n">
+        <v>37.5668017</v>
+      </c>
+      <c r="P19" t="n">
+        <v>37843315</v>
       </c>
     </row>
     <row r="20">
@@ -1745,20 +1899,28 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143398329</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>126.9974355</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>37.5837577</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1922874267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>옥인오락실</t>
+          <t>리코스타 코인노래방</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1768,16 +1930,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1786,17 +1948,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>옥인길</t>
+          <t>퇴계로</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>28 1층</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1806,25 +1968,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0507-1402-4788</t>
+          <t>0507-1316-7201</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>126.9672317</v>
+          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143407268</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N21" t="n">
-        <v>37.58095</v>
+        <v>126.9964157</v>
+      </c>
+      <c r="O21" t="n">
+        <v>37.5615426</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1800072987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>리코스타 코인노래방</t>
+          <t>옥인오락실</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1834,7 +2004,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1852,17 +2022,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>퇴계로</t>
+          <t>옥인길</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>28 1층</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1872,19 +2042,27 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0507-1316-7201</t>
+          <t>0507-1402-4788</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>126.9964157</v>
+          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143412930</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
       </c>
       <c r="N22" t="n">
-        <v>37.5615426</v>
+        <v>126.9672317</v>
+      </c>
+      <c r="O22" t="n">
+        <v>37.58095</v>
+      </c>
+      <c r="P22" t="n">
+        <v>37448396</v>
       </c>
     </row>
     <row r="23">
@@ -1905,11 +2083,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1943,14 +2121,22 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143418161</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>126.9961751</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>37.5612966</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1785501489</v>
       </c>
     </row>
     <row r="24">
@@ -2009,14 +2195,22 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143424930</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>126.998481</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>37.5609583</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1300483792</v>
       </c>
     </row>
     <row r="25">
@@ -2041,7 +2235,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2075,14 +2269,22 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143431775</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>126.9899997</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>37.5730843</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1269075560</v>
       </c>
     </row>
     <row r="26">
@@ -2141,14 +2343,22 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143438549</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>127.0108681</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>37.5691506</v>
+      </c>
+      <c r="P26" t="n">
+        <v>37017570</v>
       </c>
     </row>
     <row r="27">
@@ -2207,14 +2417,22 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143447384</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>126.9954936</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>37.5670649</v>
+      </c>
+      <c r="P27" t="n">
+        <v>36793216</v>
       </c>
     </row>
     <row r="28">
@@ -2273,14 +2491,22 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143454144</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>126.9954936</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>37.5670649</v>
+      </c>
+      <c r="P28" t="n">
+        <v>32613881</v>
       </c>
     </row>
     <row r="29">
@@ -2339,14 +2565,22 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143460950</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>126.9954936</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>37.5670649</v>
+      </c>
+      <c r="P29" t="n">
+        <v>18064222</v>
       </c>
     </row>
     <row r="30">
@@ -2405,14 +2639,22 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2023-08-20 16:44:24</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143469754</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-08-27 22:37:54</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>127.0002301</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>37.5613846</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1336098861</v>
       </c>
     </row>
   </sheetData>

--- a/data_process/xlsx/jongno_D3_processed.xlsx
+++ b/data_process/xlsx/jongno_D3_processed.xlsx
@@ -576,7 +576,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -650,7 +650,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -724,7 +724,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -798,7 +798,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -946,7 +946,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-08-27 22:37:54</t>
+          <t>2023-09-05 15:37:30</t>
         </is>
       </c>
       <c r="N30" t="n">

--- a/data_process/xlsx/jongno_D3_processed.xlsx
+++ b/data_process/xlsx/jongno_D3_processed.xlsx
@@ -533,11 +533,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -571,12 +571,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143273203</t>
+          <t>https://pcmap.place.naver.com/place/1722877110/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897117&amp;y=37.5734378&amp;timestamp=202309071832</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>우리게임장</t>
+          <t>세미소사야구장</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -607,11 +607,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>786</v>
+        <v>23</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -625,12 +625,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>대학로</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>144 중원빌딩</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,33 +640,33 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-762-0243</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143281321</t>
+          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00238600000044&amp;y=37.58392849999992&amp;timestamp=202309071832</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>127.0002521</v>
+        <v>127.0020846</v>
       </c>
       <c r="O3" t="n">
-        <v>37.5834381</v>
+        <v>37.5839822</v>
       </c>
       <c r="P3" t="n">
-        <v>20909851</v>
+        <v>33166947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>세미소사야구장</t>
+          <t>우리게임장</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -699,12 +699,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>대학로</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>144 중원빌딩</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -714,33 +714,33 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02-762-0243</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/33166947/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143288392</t>
+          <t>https://pcmap.place.naver.com/place/20909851/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00026060000016&amp;y=37.583408499999734&amp;timestamp=202309071832</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>127.0020846</v>
+        <v>127.0002521</v>
       </c>
       <c r="O4" t="n">
-        <v>37.5839822</v>
+        <v>37.5834381</v>
       </c>
       <c r="P4" t="n">
-        <v>33166947</v>
+        <v>20909851</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 종로3가점</t>
+          <t>낙원게임랜드</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -773,12 +773,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>돈화문로11길</t>
+          <t>돈화문로5길</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>38 경한빌딩 2층</t>
+          <t>38 한성빌딩</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02-747-2202</t>
+          <t>02-5229-7040</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143295241</t>
+          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98980267308646&amp;y=37.57069587415212&amp;timestamp=202309071832</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>126.9893452</v>
+        <v>126.989865</v>
       </c>
       <c r="O5" t="n">
-        <v>37.572674</v>
+        <v>37.5707552</v>
       </c>
       <c r="P5" t="n">
-        <v>1353484853</v>
+        <v>599463831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G르Go코인노래연습장</t>
+          <t>세븐틴코인노래연습장 종로3가점</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -829,11 +829,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -847,12 +847,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>돈화문로11길</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>37 3층 4층</t>
+          <t>38 경한빌딩 2층</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -862,33 +862,33 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0507-1353-6211</t>
+          <t>02-747-2202</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143302749</t>
+          <t>https://pcmap.place.naver.com/place/1353484853/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9893452&amp;y=37.572674&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>126.9995846</v>
+        <v>126.9893452</v>
       </c>
       <c r="O6" t="n">
-        <v>37.5829169</v>
+        <v>37.572674</v>
       </c>
       <c r="P6" t="n">
-        <v>1021302158</v>
+        <v>1353484853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>낙원게임랜드</t>
+          <t>드림 코인 노래연습장</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -898,16 +898,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -921,12 +921,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>돈화문로5길</t>
+          <t>종로12길</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>38 한성빌딩</t>
+          <t>14 3층</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -936,33 +936,33 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>02-5229-7040</t>
+          <t>02-733-3367</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/599463831/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143308274</t>
+          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9855858&amp;y=37.569455&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>126.989865</v>
+        <v>126.9855994</v>
       </c>
       <c r="O7" t="n">
-        <v>37.5707552</v>
+        <v>37.5694449</v>
       </c>
       <c r="P7" t="n">
-        <v>599463831</v>
+        <v>1710676941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>드림 코인 노래연습장</t>
+          <t>고래고래코인노래연습장</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -977,11 +977,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -995,12 +995,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>종로12길</t>
+          <t>우정국로2길</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>14 3층</t>
+          <t>42 덕산빌딩 지하1층</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1010,33 +1010,33 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>02-733-3367</t>
+          <t>0507-1415-7344</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1710676941/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143313478</t>
+          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9853874&amp;y=37.5694417&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>126.9855994</v>
+        <v>126.9854047</v>
       </c>
       <c r="O8" t="n">
-        <v>37.5694449</v>
+        <v>37.5694331</v>
       </c>
       <c r="P8" t="n">
-        <v>1710676941</v>
+        <v>1079072185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>고래고래코인노래연습장</t>
+          <t>G르Go코인노래연습장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1051,11 +1051,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>우정국로2길</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>42 덕산빌딩 지하1층</t>
+          <t>37 3층 4층</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1084,33 +1084,33 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0507-1415-7344</t>
+          <t>0507-1353-6211</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1079072185/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143319040</t>
+          <t>https://pcmap.place.naver.com/place/1021302158/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9995971&amp;y=37.5829145&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>126.9854047</v>
+        <v>126.9995846</v>
       </c>
       <c r="O9" t="n">
-        <v>37.5694331</v>
+        <v>37.5829169</v>
       </c>
       <c r="P9" t="n">
-        <v>1079072185</v>
+        <v>1021302158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>악쓰는하마코인노래연습장</t>
+          <t>짱오락실 종로점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1120,16 +1120,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>종로14길</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9 _3층</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1158,33 +1158,33 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>02-3674-0003</t>
+          <t>02-0200-0000</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143323944</t>
+          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9870544&amp;y=37.5698297&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>127.0009767</v>
+        <v>126.9870525</v>
       </c>
       <c r="O10" t="n">
-        <v>37.5833797</v>
+        <v>37.5698194</v>
       </c>
       <c r="P10" t="n">
-        <v>1526812708</v>
+        <v>1745549429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>짱오락실 종로점</t>
+          <t>악쓰는하마코인노래연습장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>종로14길</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9 _3층</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1232,33 +1232,33 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>02-0200-0000</t>
+          <t>02-3674-0003</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1745549429/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143329171</t>
+          <t>https://pcmap.place.naver.com/place/1526812708/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0009767&amp;y=37.5833797&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>126.9870525</v>
+        <v>127.0009767</v>
       </c>
       <c r="O11" t="n">
-        <v>37.5698194</v>
+        <v>37.5833797</v>
       </c>
       <c r="P11" t="n">
-        <v>1745549429</v>
+        <v>1526812708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>세븐틴코인노래연습장 을지로3가점</t>
+          <t>성인</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1291,14 +1291,10 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>을지로</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>110-1 2층</t>
-        </is>
-      </c>
+          <t>을지로6가</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>jongno</t>
@@ -1306,33 +1302,33 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>02-6248-4455</t>
+          <t>02-6388-2926</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143334359</t>
+          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.006938&amp;y=37.567717&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>126.9901612</v>
+        <v>127.006938</v>
       </c>
       <c r="O12" t="n">
-        <v>37.5660189</v>
+        <v>37.567717</v>
       </c>
       <c r="P12" t="n">
-        <v>1498289007</v>
+        <v>18062557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>에코코인노래연습장</t>
+          <t>세븐틴코인노래연습장 을지로3가점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1351,7 +1347,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1360,17 +1356,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>대명길</t>
+          <t>을지로</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>40 상지빌딩 지하1층</t>
+          <t>110-1 2층</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1380,33 +1376,33 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0507-1407-6675</t>
+          <t>02-6248-4455</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143341177</t>
+          <t>https://pcmap.place.naver.com/place/1498289007/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9901612&amp;y=37.5660189&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>126.9993368</v>
+        <v>126.9901612</v>
       </c>
       <c r="O13" t="n">
-        <v>37.5832163</v>
+        <v>37.5660189</v>
       </c>
       <c r="P13" t="n">
-        <v>1279861834</v>
+        <v>1498289007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>성인</t>
+          <t>인형뽑기</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1434,15 +1430,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>을지로6가</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>창신길</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>jongno</t>
@@ -1450,33 +1450,33 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>02-6388-2926</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/18062557/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143347995</t>
+          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01070291639105&amp;y=37.572204335882304&amp;timestamp=202309071833</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>127.006938</v>
+        <v>127.0106928</v>
       </c>
       <c r="O14" t="n">
-        <v>37.567717</v>
+        <v>37.5721696</v>
       </c>
       <c r="P14" t="n">
-        <v>18062557</v>
+        <v>1581490776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>인형뽑기</t>
+          <t>에코코인노래연습장</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1509,12 +1509,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>창신길</t>
+          <t>대명길</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40 상지빌딩 지하1층</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1524,27 +1524,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1407-6675</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1581490776/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143356827</t>
+          <t>https://pcmap.place.naver.com/place/1279861834/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99946989857499&amp;y=37.5830508448284&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>127.0106928</v>
+        <v>126.9993368</v>
       </c>
       <c r="O15" t="n">
-        <v>37.5721696</v>
+        <v>37.5832163</v>
       </c>
       <c r="P15" t="n">
-        <v>1581490776</v>
+        <v>1279861834</v>
       </c>
     </row>
     <row r="16">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143367721</t>
+          <t>https://pcmap.place.naver.com/place/1558580969/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.007567444612&amp;y=37.5675010184348&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1624,7 +1624,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>뮤직이너스</t>
+          <t>게임아이존</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1657,12 +1657,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>을지로43길</t>
+          <t>장충단로</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>38 지하 1층 뮤직이너스</t>
+          <t>247 굿모닝시티쇼핑몰</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1672,27 +1672,27 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>010-7506-0185</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143378536</t>
+          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0072468&amp;y=37.5669071&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>127.0077855</v>
+        <v>127.0073812</v>
       </c>
       <c r="O17" t="n">
-        <v>37.5677105</v>
+        <v>37.5668017</v>
       </c>
       <c r="P17" t="n">
-        <v>1938287664</v>
+        <v>37843315</v>
       </c>
     </row>
     <row r="18">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143385358</t>
+          <t>https://pcmap.place.naver.com/place/1980738300/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98342780000002&amp;y=37.56347439999998&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1772,7 +1772,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>게임아이존</t>
+          <t>뮤직이너스</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1782,16 +1782,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>장충단로</t>
+          <t>을지로43길</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>247 굿모닝시티쇼핑몰</t>
+          <t>38 지하 1층 뮤직이너스</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1820,27 +1820,27 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>010-7506-0185</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37843315/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143390974</t>
+          <t>https://pcmap.place.naver.com/place/1938287664/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0077855&amp;y=37.5677105&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>127.0073812</v>
+        <v>127.0077855</v>
       </c>
       <c r="O19" t="n">
-        <v>37.5668017</v>
+        <v>37.5677105</v>
       </c>
       <c r="P19" t="n">
-        <v>37843315</v>
+        <v>1938287664</v>
       </c>
     </row>
     <row r="20">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143398329</t>
+          <t>https://pcmap.place.naver.com/place/1922874267/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.997475676079&amp;y=37.5838096302172&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1920,7 +1920,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>리코스타 코인노래방</t>
+          <t>옥인오락실</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1930,16 +1930,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>노래방</t>
+          <t>오락실</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1948,17 +1948,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>퇴계로</t>
+          <t>옥인길</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>28 1층</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1968,33 +1968,33 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0507-1316-7201</t>
+          <t>0507-1402-4788</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143407268</t>
+          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9672317&amp;y=37.58095&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>126.9964157</v>
+        <v>126.9672317</v>
       </c>
       <c r="O21" t="n">
-        <v>37.5615426</v>
+        <v>37.58095</v>
       </c>
       <c r="P21" t="n">
-        <v>1800072987</v>
+        <v>37448396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>옥인오락실</t>
+          <t>리코스타 코인노래방</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>오락실</t>
+          <t>노래방</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>옥인길</t>
+          <t>퇴계로</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>28 1층</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2042,27 +2042,27 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0507-1402-4788</t>
+          <t>0507-1316-7201</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37448396/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143412930</t>
+          <t>https://pcmap.place.naver.com/place/1800072987/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99639100017801&amp;y=37.5615210017096&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>126.9672317</v>
+        <v>126.9964157</v>
       </c>
       <c r="O22" t="n">
-        <v>37.58095</v>
+        <v>37.5615426</v>
       </c>
       <c r="P22" t="n">
-        <v>37448396</v>
+        <v>1800072987</v>
       </c>
     </row>
     <row r="23">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143418161</t>
+          <t>https://pcmap.place.naver.com/place/1785501489/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9961751&amp;y=37.5612966&amp;timestamp=202309071834</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143424930</t>
+          <t>https://pcmap.place.naver.com/place/1300483792/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99851999999998&amp;y=37.56097110000001&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143431775</t>
+          <t>https://pcmap.place.naver.com/place/1269075560/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9899997&amp;y=37.5730843&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143438549</t>
+          <t>https://pcmap.place.naver.com/place/37017570/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0109481&amp;y=37.5691737&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143447384</t>
+          <t>https://pcmap.place.naver.com/place/36793216/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954215&amp;y=37.567527&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143454144</t>
+          <t>https://pcmap.place.naver.com/place/32613881/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9954149&amp;y=37.5675349&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2565,12 +2565,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143460950</t>
+          <t>https://pcmap.place.naver.com/place/18064222/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9955084&amp;y=37.5667617&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693143469754</t>
+          <t>https://pcmap.place.naver.com/place/1336098861/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0002301&amp;y=37.5613846&amp;timestamp=202309071835</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023-09-05 15:37:30</t>
+          <t>2023-09-07 18:32:03</t>
         </is>
       </c>
       <c r="N30" t="n">
